--- a/biology/Zoologie/Johann_Leonhard_Frisch/Johann_Leonhard_Frisch.xlsx
+++ b/biology/Zoologie/Johann_Leonhard_Frisch/Johann_Leonhard_Frisch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johann Leonhard Frisch est un linguiste, un naturaliste et un entomologiste allemand, né le 19 mars 1666 à Sulzbach et mort le 21 mars 1743 (à 77 ans) à Berlin.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Frisch fréquente les universités d'Altdorf en 1683, de Iéna en 1686 et de Strasbourg en 1688. Il étudie la théologie afin de devenir prêtre. Il voyage alors en Autriche, en Hongrie et en Turquie, et décide de devenir instituteur.
 Il se marie avec Sophie Elisabeth Dornmann en 1699 dont il aura huit enfants dont Philipp Jacob (1702-1753), Ferdinand Helffrich et Jodocus Leopold.
@@ -548,7 +562,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1712 : Neues frantzösisch-teutsches und teutsch-frantzösisches Wörter-Buch
 1720-1766 : Beschreibung von allerley Insecten in Teutsch-Land: nebst nützlichen Anmerckungen und nöthigen Abbildungen von diesem kriechenden und fliegenden inländischen Gewürme, Nicolai, Berlin
